--- a/data/pca/factorExposure/factorExposure_2012-08-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-29.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002671387834732966</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002038166369121489</v>
+      </c>
+      <c r="C2">
+        <v>0.02896727512035202</v>
+      </c>
+      <c r="D2">
+        <v>0.00477706071135667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0004520104630068462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006653613344352582</v>
+      </c>
+      <c r="C4">
+        <v>0.08391620019387573</v>
+      </c>
+      <c r="D4">
+        <v>0.06847784719649008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005870301425765438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01495821259294855</v>
+      </c>
+      <c r="C6">
+        <v>0.1185349809748849</v>
+      </c>
+      <c r="D6">
+        <v>0.0201178606496565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0008433933815971294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004754547117859824</v>
+      </c>
+      <c r="C7">
+        <v>0.05919966168315872</v>
+      </c>
+      <c r="D7">
+        <v>0.03179932086639974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005796326335656914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004947339230116569</v>
+      </c>
+      <c r="C8">
+        <v>0.03587877825914178</v>
+      </c>
+      <c r="D8">
+        <v>0.03974840350243641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0003276264429525316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005596129572293456</v>
+      </c>
+      <c r="C9">
+        <v>0.07202081383383772</v>
+      </c>
+      <c r="D9">
+        <v>0.07442835093620083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.000894439477147814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.001942637798589582</v>
+      </c>
+      <c r="C10">
+        <v>0.05192011276200453</v>
+      </c>
+      <c r="D10">
+        <v>-0.1856055519589085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0006584925893577743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005873244597527392</v>
+      </c>
+      <c r="C11">
+        <v>0.08052893257360437</v>
+      </c>
+      <c r="D11">
+        <v>0.06595155563573046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003696070897987701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004447535071934668</v>
+      </c>
+      <c r="C12">
+        <v>0.06506104788435346</v>
+      </c>
+      <c r="D12">
+        <v>0.05058677974439679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002158485287624712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008677242277757229</v>
+      </c>
+      <c r="C13">
+        <v>0.07130685425132788</v>
+      </c>
+      <c r="D13">
+        <v>0.05734520561751912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001620668413739477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007577046982796122</v>
+      </c>
+      <c r="C14">
+        <v>0.04344021811109289</v>
+      </c>
+      <c r="D14">
+        <v>0.0109561518177334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001413795031107133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005800074502208969</v>
+      </c>
+      <c r="C15">
+        <v>0.04069605795459882</v>
+      </c>
+      <c r="D15">
+        <v>0.02882695733334125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005037629952244251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00540024929777116</v>
+      </c>
+      <c r="C16">
+        <v>0.06472170096349768</v>
+      </c>
+      <c r="D16">
+        <v>0.05756763273829985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002827299180318012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008885384803823278</v>
+      </c>
+      <c r="C20">
+        <v>0.06412261770164117</v>
+      </c>
+      <c r="D20">
+        <v>0.05215991629329506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005399288243826622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00923578366043</v>
+      </c>
+      <c r="C21">
+        <v>0.02015507619242709</v>
+      </c>
+      <c r="D21">
+        <v>0.03955869350033286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02007151588108963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007954567486505486</v>
+      </c>
+      <c r="C22">
+        <v>0.08685327894263335</v>
+      </c>
+      <c r="D22">
+        <v>0.1268684875842992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01972390762256989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007652885647943261</v>
+      </c>
+      <c r="C23">
+        <v>0.08726313580039946</v>
+      </c>
+      <c r="D23">
+        <v>0.1279887957191168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001136993970019644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005882187195614996</v>
+      </c>
+      <c r="C24">
+        <v>0.07708419195221604</v>
+      </c>
+      <c r="D24">
+        <v>0.06738691549417924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002712396305833451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003317534804266436</v>
+      </c>
+      <c r="C25">
+        <v>0.07800756789549071</v>
+      </c>
+      <c r="D25">
+        <v>0.0654143979466193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001472851165477767</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003439776565926302</v>
+      </c>
+      <c r="C26">
+        <v>0.03937619871840962</v>
+      </c>
+      <c r="D26">
+        <v>0.02123452467979009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006658234885906693</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002326844070393581</v>
+      </c>
+      <c r="C28">
+        <v>0.1026458821593944</v>
+      </c>
+      <c r="D28">
+        <v>-0.3249670268319005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0005847625003311705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003285131815631595</v>
+      </c>
+      <c r="C29">
+        <v>0.04755573294933287</v>
+      </c>
+      <c r="D29">
+        <v>0.01034682563011583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002479741637574107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009242195740584214</v>
+      </c>
+      <c r="C30">
+        <v>0.1411774069740226</v>
+      </c>
+      <c r="D30">
+        <v>0.1096836890016453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002231026320634655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006211690266297646</v>
+      </c>
+      <c r="C31">
+        <v>0.04398909516972947</v>
+      </c>
+      <c r="D31">
+        <v>0.03202104098551375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0007843010572511471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004319753923315712</v>
+      </c>
+      <c r="C32">
+        <v>0.03909179631445687</v>
+      </c>
+      <c r="D32">
+        <v>0.01996981932796246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0005864367088264459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008863502700859701</v>
+      </c>
+      <c r="C33">
+        <v>0.09049550481364033</v>
+      </c>
+      <c r="D33">
+        <v>0.0633205614675178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001062851850806698</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004429726076056982</v>
+      </c>
+      <c r="C34">
+        <v>0.05791740731750267</v>
+      </c>
+      <c r="D34">
+        <v>0.05796866903631957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002290368443868581</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005201787201805619</v>
+      </c>
+      <c r="C35">
+        <v>0.04062006742419539</v>
+      </c>
+      <c r="D35">
+        <v>0.01580299850269256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004408210439968595</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00143427759484781</v>
+      </c>
+      <c r="C36">
+        <v>0.02530165028375168</v>
+      </c>
+      <c r="D36">
+        <v>0.0233874744341011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.003013151197341553</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009222928327999549</v>
+      </c>
+      <c r="C38">
+        <v>0.04115123492293161</v>
+      </c>
+      <c r="D38">
+        <v>0.01041038404782962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01090492759217678</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001994273478193239</v>
+      </c>
+      <c r="C39">
+        <v>0.1122110076881539</v>
+      </c>
+      <c r="D39">
+        <v>0.08068045991934493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003756789559828412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.00263666447642487</v>
+      </c>
+      <c r="C40">
+        <v>0.09144611722556618</v>
+      </c>
+      <c r="D40">
+        <v>0.01743230681703405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002599949521314437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007492290381738024</v>
+      </c>
+      <c r="C41">
+        <v>0.04127919624250718</v>
+      </c>
+      <c r="D41">
+        <v>0.04071219274346615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001450498552847431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003955479884274229</v>
+      </c>
+      <c r="C43">
+        <v>0.05405658080911461</v>
+      </c>
+      <c r="D43">
+        <v>0.0283825031364518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007095745782484297</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002106135378845645</v>
+      </c>
+      <c r="C44">
+        <v>0.1047900933897862</v>
+      </c>
+      <c r="D44">
+        <v>0.06985239014457185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001250298373941794</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.0015460647738281</v>
+      </c>
+      <c r="C46">
+        <v>0.03277845001233391</v>
+      </c>
+      <c r="D46">
+        <v>0.0328805109041646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-9.494608596877146e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002840709408484264</v>
+      </c>
+      <c r="C47">
+        <v>0.03554410834522502</v>
+      </c>
+      <c r="D47">
+        <v>0.02204089590101595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004725768165737405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007477361337766499</v>
+      </c>
+      <c r="C48">
+        <v>0.03312797342812962</v>
+      </c>
+      <c r="D48">
+        <v>0.03215637659888204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005000129736416728</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01719735784289352</v>
+      </c>
+      <c r="C49">
+        <v>0.1861480013222848</v>
+      </c>
+      <c r="D49">
+        <v>0.006381726094012822</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0002518680258683257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00394185159489294</v>
+      </c>
+      <c r="C50">
+        <v>0.04300335795211022</v>
+      </c>
+      <c r="D50">
+        <v>0.04053185456511699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001062142236013946</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003948938816651866</v>
+      </c>
+      <c r="C51">
+        <v>0.02652873894480848</v>
+      </c>
+      <c r="D51">
+        <v>0.0226325036262255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008922313322384313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02170488423240553</v>
+      </c>
+      <c r="C53">
+        <v>0.171837901882266</v>
+      </c>
+      <c r="D53">
+        <v>0.01957217294177015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004166036612189104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009671770232484393</v>
+      </c>
+      <c r="C54">
+        <v>0.05684263011994754</v>
+      </c>
+      <c r="D54">
+        <v>0.04153807962026162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002089445694266929</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01020559477694724</v>
+      </c>
+      <c r="C55">
+        <v>0.1086818017273047</v>
+      </c>
+      <c r="D55">
+        <v>0.03595599247449843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009933797050846245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02153982574792892</v>
+      </c>
+      <c r="C56">
+        <v>0.1744997300847222</v>
+      </c>
+      <c r="D56">
+        <v>0.01392524090875946</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001400284642031751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01644983653551597</v>
+      </c>
+      <c r="C58">
+        <v>0.1072968069296349</v>
+      </c>
+      <c r="D58">
+        <v>0.06732171495275871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002762391143422454</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009206285954116057</v>
+      </c>
+      <c r="C59">
+        <v>0.167864486631962</v>
+      </c>
+      <c r="D59">
+        <v>-0.3456858464805828</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.009176863881347499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02627290749723466</v>
+      </c>
+      <c r="C60">
+        <v>0.2233695999719127</v>
+      </c>
+      <c r="D60">
+        <v>0.01534559359918409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01001244784049865</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002059460960670066</v>
+      </c>
+      <c r="C61">
+        <v>0.09379162491999754</v>
+      </c>
+      <c r="D61">
+        <v>0.05928466101510597</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1503548381014671</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1525743667395368</v>
+      </c>
+      <c r="C62">
+        <v>0.1016742127793452</v>
+      </c>
+      <c r="D62">
+        <v>0.01567761840854531</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001692577749029894</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006629494473911721</v>
+      </c>
+      <c r="C63">
+        <v>0.05359396439365881</v>
+      </c>
+      <c r="D63">
+        <v>0.03338456101209926</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01032434134899445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01699182624737974</v>
+      </c>
+      <c r="C64">
+        <v>0.1063749721205829</v>
+      </c>
+      <c r="D64">
+        <v>0.05410078078516143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.009015734911900806</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01804886300973461</v>
+      </c>
+      <c r="C65">
+        <v>0.1206934068990893</v>
+      </c>
+      <c r="D65">
+        <v>0.02747198291998045</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.0008352415133886052</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0128336687799006</v>
+      </c>
+      <c r="C66">
+        <v>0.159963970381685</v>
+      </c>
+      <c r="D66">
+        <v>0.1131876871618066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006238336184907643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01562838426794776</v>
+      </c>
+      <c r="C67">
+        <v>0.07357845253379452</v>
+      </c>
+      <c r="D67">
+        <v>0.020583655599697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004383121496680493</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>8.383724460212847e-05</v>
+      </c>
+      <c r="C68">
+        <v>0.08465159522916099</v>
+      </c>
+      <c r="D68">
+        <v>-0.257955752886026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001089266230614052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006347595816681468</v>
+      </c>
+      <c r="C69">
+        <v>0.0525298533192334</v>
+      </c>
+      <c r="D69">
+        <v>0.03886309662964995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001285080986666829</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002487658127867949</v>
+      </c>
+      <c r="C70">
+        <v>0.008560434755824426</v>
+      </c>
+      <c r="D70">
+        <v>-0.001286221265339165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002888531747720167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004516551835118354</v>
+      </c>
+      <c r="C71">
+        <v>0.08906793908097801</v>
+      </c>
+      <c r="D71">
+        <v>-0.3009943797729335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005423936742049201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01832540492669214</v>
+      </c>
+      <c r="C72">
+        <v>0.1587044096199956</v>
+      </c>
+      <c r="D72">
+        <v>0.005768327595346154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01032496879364542</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03134849533466495</v>
+      </c>
+      <c r="C73">
+        <v>0.2815513179147132</v>
+      </c>
+      <c r="D73">
+        <v>0.05286250532980722</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004982466284992865</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002132835283370956</v>
+      </c>
+      <c r="C74">
+        <v>0.1028096008607846</v>
+      </c>
+      <c r="D74">
+        <v>0.03312543664018662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0002538746228257495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01158746637158278</v>
+      </c>
+      <c r="C75">
+        <v>0.1206846987309244</v>
+      </c>
+      <c r="D75">
+        <v>0.0278950648119726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01166331137241742</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02208901821084014</v>
+      </c>
+      <c r="C76">
+        <v>0.1462990291193614</v>
+      </c>
+      <c r="D76">
+        <v>0.05844157558446485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.008168910639841714</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02138019327074354</v>
+      </c>
+      <c r="C77">
+        <v>0.1102426200189025</v>
+      </c>
+      <c r="D77">
+        <v>0.05099288900271238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005385425650031038</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01417559954780359</v>
+      </c>
+      <c r="C78">
+        <v>0.09879346198133507</v>
+      </c>
+      <c r="D78">
+        <v>0.08259939751520456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02811643424036098</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03931568644151544</v>
+      </c>
+      <c r="C79">
+        <v>0.1572320169392015</v>
+      </c>
+      <c r="D79">
+        <v>0.03048381935143864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006336290138752969</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009427875819212478</v>
+      </c>
+      <c r="C80">
+        <v>0.03995964752406607</v>
+      </c>
+      <c r="D80">
+        <v>0.03139610710957919</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005260865381045791</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01631814055293452</v>
+      </c>
+      <c r="C81">
+        <v>0.1307878492808952</v>
+      </c>
+      <c r="D81">
+        <v>0.03811997192590837</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008329489831643257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01980727373492439</v>
+      </c>
+      <c r="C82">
+        <v>0.1363279497214417</v>
+      </c>
+      <c r="D82">
+        <v>0.03710654193259334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003999737910510212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01225530370598243</v>
+      </c>
+      <c r="C83">
+        <v>0.06473191828236118</v>
+      </c>
+      <c r="D83">
+        <v>0.04603311595221748</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004174815880978928</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006271918880627736</v>
+      </c>
+      <c r="C84">
+        <v>0.0344670058120605</v>
+      </c>
+      <c r="D84">
+        <v>0.01188142465301928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01898685402971611</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02933836483822949</v>
+      </c>
+      <c r="C85">
+        <v>0.1236997433224404</v>
+      </c>
+      <c r="D85">
+        <v>0.03963117045213808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002476068139603417</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003829590008517951</v>
+      </c>
+      <c r="C86">
+        <v>0.05041033532591552</v>
+      </c>
+      <c r="D86">
+        <v>0.02664897771887213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001633881474300511</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01156310203020266</v>
+      </c>
+      <c r="C87">
+        <v>0.1286918543400893</v>
+      </c>
+      <c r="D87">
+        <v>0.07537229428571197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008254522626358339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002672552221624682</v>
+      </c>
+      <c r="C88">
+        <v>0.06341773518194727</v>
+      </c>
+      <c r="D88">
+        <v>0.02906727036737423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01126153216190005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003297085596333714</v>
+      </c>
+      <c r="C89">
+        <v>0.134533188462329</v>
+      </c>
+      <c r="D89">
+        <v>-0.3144166305092052</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001735148264451397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005490086212624217</v>
+      </c>
+      <c r="C90">
+        <v>0.1158575439212225</v>
+      </c>
+      <c r="D90">
+        <v>-0.3140320146026535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002791680031229322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0112803848714413</v>
+      </c>
+      <c r="C91">
+        <v>0.09912094657834526</v>
+      </c>
+      <c r="D91">
+        <v>0.02952858268609175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005560102556108593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006113583952284396</v>
+      </c>
+      <c r="C92">
+        <v>0.1295721172014835</v>
+      </c>
+      <c r="D92">
+        <v>-0.3258743038577837</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001940029770589435</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.002938637521946418</v>
+      </c>
+      <c r="C93">
+        <v>0.1039213963021428</v>
+      </c>
+      <c r="D93">
+        <v>-0.3008101836586587</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01092448383669892</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02237115034129931</v>
+      </c>
+      <c r="C94">
+        <v>0.1402856575750459</v>
+      </c>
+      <c r="D94">
+        <v>0.05430837267966574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007224827813450392</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01604210229658021</v>
+      </c>
+      <c r="C95">
+        <v>0.1208082666571619</v>
+      </c>
+      <c r="D95">
+        <v>0.06570878603696624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01753826874779597</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03760990488148877</v>
+      </c>
+      <c r="C97">
+        <v>0.225762845139701</v>
+      </c>
+      <c r="D97">
+        <v>-0.003388593529201232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01261139252165236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03938726002129021</v>
+      </c>
+      <c r="C98">
+        <v>0.2615454420278412</v>
+      </c>
+      <c r="D98">
+        <v>0.02684774654585186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9863667187415809</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9806363915601408</v>
+      </c>
+      <c r="C99">
+        <v>-0.1211390148030869</v>
+      </c>
+      <c r="D99">
+        <v>-0.02478505786357865</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006087533257678868</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003268810859260883</v>
+      </c>
+      <c r="C101">
+        <v>0.0476700121110312</v>
+      </c>
+      <c r="D101">
+        <v>0.0108272392789163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
